--- a/data_exploration.xlsx
+++ b/data_exploration.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="-920" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Image Classes" sheetId="1" r:id="rId1"/>
+    <sheet name="Lesioning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>iteration</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>Rose</t>
+  </si>
+  <si>
+    <t>WalletEye 000111</t>
+  </si>
+  <si>
+    <t>WalletEye 111000</t>
   </si>
 </sst>
 </file>
@@ -178,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -195,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,6 +215,3370 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eye</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>546400.3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50163.929688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99633.820312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47517.804688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34484.113281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31861.154297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34988.441406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29449.193359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28404.166016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30325.433594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28810.003906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26673.3125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26372.632812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25948.994141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25071.224609</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25241.244141</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25005.425781</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24896.65625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24251.029297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24759.003906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wallet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$J$3:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>407100.15625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15505.806641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98841.429688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55560.628906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14208.816406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24900.429688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26652.972656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20669.132812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21724.523438</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17314.521484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14829.693359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19254.623047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19735.083984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14132.723633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17167.734375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13513.339844</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16624.669922</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15157.973633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13968.611328</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13635.53418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WalletEye 000111</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>22372.35742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38077.51563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19734.57422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23026.0918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19996.23633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16121.04688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17807.34961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15947.77344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16139.07031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16364.17285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17977.2793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17004.61914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20816.34961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17378.16406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16842.7832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18068.83594</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17191.43359</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17153.76563</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17703.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16848.08594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>WalletEye 111000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$T$3:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>131505.359375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62206.773438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32316.867188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28856.712891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24576.384766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19084.148438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18319.279297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19504.363281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15080.542969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23509.769531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16088.776367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14214.196289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15709.849609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14959.080078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15190.858398</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15727.296875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16740.732422</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13885.400391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16379.658203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15195.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1324351952"/>
+        <c:axId val="-2075734960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1324351952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075734960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2075734960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1324351952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eye</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.34167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75833</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wallet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$I$3:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.31833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86167</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WalletEye 000111</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.70167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>WalletEye 111000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lesioning!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lesioning!$S$3:$S$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81833</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1299440688"/>
+        <c:axId val="-2042371760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1299440688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2042371760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2042371760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299440688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,7 +3846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
@@ -1821,4 +5193,1358 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.32778000000000002</v>
+      </c>
+      <c r="C3">
+        <v>555639.3125</v>
+      </c>
+      <c r="D3">
+        <v>0.34166999999999997</v>
+      </c>
+      <c r="E3">
+        <v>546400.3125</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.34333000000000002</v>
+      </c>
+      <c r="H3">
+        <v>395668.125</v>
+      </c>
+      <c r="I3">
+        <v>0.31833</v>
+      </c>
+      <c r="J3">
+        <v>407100.15625</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.71111000000000002</v>
+      </c>
+      <c r="M3">
+        <v>23713.898440000001</v>
+      </c>
+      <c r="N3">
+        <v>0.70167000000000002</v>
+      </c>
+      <c r="O3">
+        <v>22372.35742</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.33889000000000002</v>
+      </c>
+      <c r="R3">
+        <v>131927.828125</v>
+      </c>
+      <c r="S3">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="T3">
+        <v>131505.359375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>0.64222000000000001</v>
+      </c>
+      <c r="C4">
+        <v>48969.761719000002</v>
+      </c>
+      <c r="D4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E4">
+        <v>50163.929687999997</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>0.74111000000000005</v>
+      </c>
+      <c r="H4">
+        <v>16817.013672000001</v>
+      </c>
+      <c r="I4">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="J4">
+        <v>15505.806640999999</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
+        <v>0.67778000000000005</v>
+      </c>
+      <c r="M4">
+        <v>41449.964840000001</v>
+      </c>
+      <c r="N4">
+        <v>0.71333000000000002</v>
+      </c>
+      <c r="O4">
+        <v>38077.515630000002</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="R4">
+        <v>58164.375</v>
+      </c>
+      <c r="S4">
+        <v>0.65166999999999997</v>
+      </c>
+      <c r="T4">
+        <v>62206.773437999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>0.67778000000000005</v>
+      </c>
+      <c r="C5">
+        <v>98280.109375</v>
+      </c>
+      <c r="D5">
+        <v>0.65832999999999997</v>
+      </c>
+      <c r="E5">
+        <v>99633.820311999996</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0.65666999999999998</v>
+      </c>
+      <c r="H5">
+        <v>107072.898438</v>
+      </c>
+      <c r="I5">
+        <v>0.68167</v>
+      </c>
+      <c r="J5">
+        <v>98841.429688000004</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>0.76556000000000002</v>
+      </c>
+      <c r="M5">
+        <v>19855.98242</v>
+      </c>
+      <c r="N5">
+        <v>0.76666999999999996</v>
+      </c>
+      <c r="O5">
+        <v>19734.574219999999</v>
+      </c>
+      <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5">
+        <v>0.50444</v>
+      </c>
+      <c r="R5">
+        <v>30092.835938</v>
+      </c>
+      <c r="S5">
+        <v>0.49</v>
+      </c>
+      <c r="T5">
+        <v>32316.867188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>0.72777999999999998</v>
+      </c>
+      <c r="C6">
+        <v>48333.1875</v>
+      </c>
+      <c r="D6">
+        <v>0.71167000000000002</v>
+      </c>
+      <c r="E6">
+        <v>47517.804687999997</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>0.67</v>
+      </c>
+      <c r="H6">
+        <v>60582.246094000002</v>
+      </c>
+      <c r="I6">
+        <v>0.68833</v>
+      </c>
+      <c r="J6">
+        <v>55560.628905999998</v>
+      </c>
+      <c r="K6">
+        <v>1500</v>
+      </c>
+      <c r="L6">
+        <v>0.75333000000000006</v>
+      </c>
+      <c r="M6">
+        <v>23384.484380000002</v>
+      </c>
+      <c r="N6">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="O6">
+        <v>23026.091799999998</v>
+      </c>
+      <c r="P6">
+        <v>1500</v>
+      </c>
+      <c r="Q6">
+        <v>0.65556000000000003</v>
+      </c>
+      <c r="R6">
+        <v>25789.994140999999</v>
+      </c>
+      <c r="S6">
+        <v>0.62166999999999994</v>
+      </c>
+      <c r="T6">
+        <v>28856.712890999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>0.74556</v>
+      </c>
+      <c r="C7">
+        <v>34092.929687999997</v>
+      </c>
+      <c r="D7">
+        <v>0.73667000000000005</v>
+      </c>
+      <c r="E7">
+        <v>34484.113280999998</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="H7">
+        <v>15389.364258</v>
+      </c>
+      <c r="I7">
+        <v>0.80667</v>
+      </c>
+      <c r="J7">
+        <v>14208.816406</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <v>0.79222000000000004</v>
+      </c>
+      <c r="M7">
+        <v>19772.849610000001</v>
+      </c>
+      <c r="N7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="O7">
+        <v>19996.23633</v>
+      </c>
+      <c r="P7">
+        <v>2000</v>
+      </c>
+      <c r="Q7">
+        <v>0.66778000000000004</v>
+      </c>
+      <c r="R7">
+        <v>21977.466797000001</v>
+      </c>
+      <c r="S7">
+        <v>0.63832999999999995</v>
+      </c>
+      <c r="T7">
+        <v>24576.384765999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2500</v>
+      </c>
+      <c r="B8">
+        <v>0.77444000000000002</v>
+      </c>
+      <c r="C8">
+        <v>32549.632812</v>
+      </c>
+      <c r="D8">
+        <v>0.75832999999999995</v>
+      </c>
+      <c r="E8">
+        <v>31861.154297000001</v>
+      </c>
+      <c r="F8">
+        <v>2500</v>
+      </c>
+      <c r="G8">
+        <v>0.74333000000000005</v>
+      </c>
+      <c r="H8">
+        <v>27274.902343999998</v>
+      </c>
+      <c r="I8">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J8">
+        <v>24900.429688</v>
+      </c>
+      <c r="K8">
+        <v>2500</v>
+      </c>
+      <c r="L8">
+        <v>0.80110999999999999</v>
+      </c>
+      <c r="M8">
+        <v>15891.94434</v>
+      </c>
+      <c r="N8">
+        <v>0.82667000000000002</v>
+      </c>
+      <c r="O8">
+        <v>16121.04688</v>
+      </c>
+      <c r="P8">
+        <v>2500</v>
+      </c>
+      <c r="Q8">
+        <v>0.66222000000000003</v>
+      </c>
+      <c r="R8">
+        <v>17623.501952999999</v>
+      </c>
+      <c r="S8">
+        <v>0.65666999999999998</v>
+      </c>
+      <c r="T8">
+        <v>19084.148438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3000</v>
+      </c>
+      <c r="B9">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="C9">
+        <v>36081.480469000002</v>
+      </c>
+      <c r="D9">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="E9">
+        <v>34988.441405999998</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="G9">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="H9">
+        <v>29157.90625</v>
+      </c>
+      <c r="I9">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="J9">
+        <v>26652.972656000002</v>
+      </c>
+      <c r="K9">
+        <v>3000</v>
+      </c>
+      <c r="L9">
+        <v>0.82333000000000001</v>
+      </c>
+      <c r="M9">
+        <v>17074.136719999999</v>
+      </c>
+      <c r="N9">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="O9">
+        <v>17807.349610000001</v>
+      </c>
+      <c r="P9">
+        <v>3000</v>
+      </c>
+      <c r="Q9">
+        <v>0.71889000000000003</v>
+      </c>
+      <c r="R9">
+        <v>16559.966797000001</v>
+      </c>
+      <c r="S9">
+        <v>0.68167</v>
+      </c>
+      <c r="T9">
+        <v>18319.279297000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3500</v>
+      </c>
+      <c r="B10">
+        <v>0.78778000000000004</v>
+      </c>
+      <c r="C10">
+        <v>29951.400390999999</v>
+      </c>
+      <c r="D10">
+        <v>0.78</v>
+      </c>
+      <c r="E10">
+        <v>29449.193359000001</v>
+      </c>
+      <c r="F10">
+        <v>3500</v>
+      </c>
+      <c r="G10">
+        <v>0.77888999999999997</v>
+      </c>
+      <c r="H10">
+        <v>22228.408202999999</v>
+      </c>
+      <c r="I10">
+        <v>0.79332999999999998</v>
+      </c>
+      <c r="J10">
+        <v>20669.132812</v>
+      </c>
+      <c r="K10">
+        <v>3500</v>
+      </c>
+      <c r="L10">
+        <v>0.82443999999999995</v>
+      </c>
+      <c r="M10">
+        <v>15008.38574</v>
+      </c>
+      <c r="N10">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="O10">
+        <v>15947.773440000001</v>
+      </c>
+      <c r="P10">
+        <v>3500</v>
+      </c>
+      <c r="Q10">
+        <v>0.73333000000000004</v>
+      </c>
+      <c r="R10">
+        <v>17311.035156000002</v>
+      </c>
+      <c r="S10">
+        <v>0.70833000000000002</v>
+      </c>
+      <c r="T10">
+        <v>19504.363281000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11">
+        <v>0.79556000000000004</v>
+      </c>
+      <c r="C11">
+        <v>28952.107422000001</v>
+      </c>
+      <c r="D11">
+        <v>0.79</v>
+      </c>
+      <c r="E11">
+        <v>28404.166015999999</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+      <c r="G11">
+        <v>0.77666999999999997</v>
+      </c>
+      <c r="H11">
+        <v>23298.480468999998</v>
+      </c>
+      <c r="I11">
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <v>21724.523438</v>
+      </c>
+      <c r="K11">
+        <v>4000</v>
+      </c>
+      <c r="L11">
+        <v>0.82889000000000002</v>
+      </c>
+      <c r="M11">
+        <v>15138.228520000001</v>
+      </c>
+      <c r="N11">
+        <v>0.84167000000000003</v>
+      </c>
+      <c r="O11">
+        <v>16139.070309999999</v>
+      </c>
+      <c r="P11">
+        <v>4000</v>
+      </c>
+      <c r="Q11">
+        <v>0.72111000000000003</v>
+      </c>
+      <c r="R11">
+        <v>14191.273438</v>
+      </c>
+      <c r="S11">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="T11">
+        <v>15080.542969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4500</v>
+      </c>
+      <c r="B12">
+        <v>0.80889</v>
+      </c>
+      <c r="C12">
+        <v>31009.177734000001</v>
+      </c>
+      <c r="D12">
+        <v>0.80667</v>
+      </c>
+      <c r="E12">
+        <v>30325.433593999998</v>
+      </c>
+      <c r="F12">
+        <v>4500</v>
+      </c>
+      <c r="G12">
+        <v>0.81555999999999995</v>
+      </c>
+      <c r="H12">
+        <v>18438.339843999998</v>
+      </c>
+      <c r="I12">
+        <v>0.82167000000000001</v>
+      </c>
+      <c r="J12">
+        <v>17314.521484000001</v>
+      </c>
+      <c r="K12">
+        <v>4500</v>
+      </c>
+      <c r="L12">
+        <v>0.83555999999999997</v>
+      </c>
+      <c r="M12">
+        <v>15475.570309999999</v>
+      </c>
+      <c r="N12">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="O12">
+        <v>16364.172850000001</v>
+      </c>
+      <c r="P12">
+        <v>4500</v>
+      </c>
+      <c r="Q12">
+        <v>0.75333000000000006</v>
+      </c>
+      <c r="R12">
+        <v>20566.408202999999</v>
+      </c>
+      <c r="S12">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="T12">
+        <v>23509.769531000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5000</v>
+      </c>
+      <c r="B13">
+        <v>0.82</v>
+      </c>
+      <c r="C13">
+        <v>29648.941406000002</v>
+      </c>
+      <c r="D13">
+        <v>0.81</v>
+      </c>
+      <c r="E13">
+        <v>28810.003906000002</v>
+      </c>
+      <c r="F13">
+        <v>5000</v>
+      </c>
+      <c r="G13">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="H13">
+        <v>16178.019531</v>
+      </c>
+      <c r="I13">
+        <v>0.83833000000000002</v>
+      </c>
+      <c r="J13">
+        <v>14829.693359000001</v>
+      </c>
+      <c r="K13">
+        <v>5000</v>
+      </c>
+      <c r="L13">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="M13">
+        <v>17271.091799999998</v>
+      </c>
+      <c r="N13">
+        <v>0.84667000000000003</v>
+      </c>
+      <c r="O13">
+        <v>17977.279299999998</v>
+      </c>
+      <c r="P13">
+        <v>5000</v>
+      </c>
+      <c r="Q13">
+        <v>0.78556000000000004</v>
+      </c>
+      <c r="R13">
+        <v>14284.455078000001</v>
+      </c>
+      <c r="S13">
+        <v>0.78166999999999998</v>
+      </c>
+      <c r="T13">
+        <v>16088.776367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5500</v>
+      </c>
+      <c r="B14">
+        <v>0.81</v>
+      </c>
+      <c r="C14">
+        <v>27958.078125</v>
+      </c>
+      <c r="D14">
+        <v>0.81167</v>
+      </c>
+      <c r="E14">
+        <v>26673.3125</v>
+      </c>
+      <c r="F14">
+        <v>5500</v>
+      </c>
+      <c r="G14">
+        <v>0.82</v>
+      </c>
+      <c r="H14">
+        <v>20492.738281000002</v>
+      </c>
+      <c r="I14">
+        <v>0.82333000000000001</v>
+      </c>
+      <c r="J14">
+        <v>19254.623047000001</v>
+      </c>
+      <c r="K14">
+        <v>5500</v>
+      </c>
+      <c r="L14">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="M14">
+        <v>16256.70996</v>
+      </c>
+      <c r="N14">
+        <v>0.83667000000000002</v>
+      </c>
+      <c r="O14">
+        <v>17004.619139999999</v>
+      </c>
+      <c r="P14">
+        <v>5500</v>
+      </c>
+      <c r="Q14">
+        <v>0.78888999999999998</v>
+      </c>
+      <c r="R14">
+        <v>12703.451171999999</v>
+      </c>
+      <c r="S14">
+        <v>0.79666999999999999</v>
+      </c>
+      <c r="T14">
+        <v>14214.196289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6000</v>
+      </c>
+      <c r="B15">
+        <v>0.82221999999999995</v>
+      </c>
+      <c r="C15">
+        <v>27386.90625</v>
+      </c>
+      <c r="D15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E15">
+        <v>26372.632812</v>
+      </c>
+      <c r="F15">
+        <v>6000</v>
+      </c>
+      <c r="G15">
+        <v>0.82111000000000001</v>
+      </c>
+      <c r="H15">
+        <v>21093.876952999999</v>
+      </c>
+      <c r="I15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J15">
+        <v>19735.083984000001</v>
+      </c>
+      <c r="K15">
+        <v>6000</v>
+      </c>
+      <c r="L15">
+        <v>0.81333</v>
+      </c>
+      <c r="M15">
+        <v>19871.654299999998</v>
+      </c>
+      <c r="N15">
+        <v>0.81333</v>
+      </c>
+      <c r="O15">
+        <v>20816.349610000001</v>
+      </c>
+      <c r="P15">
+        <v>6000</v>
+      </c>
+      <c r="Q15">
+        <v>0.8</v>
+      </c>
+      <c r="R15">
+        <v>13631.061523</v>
+      </c>
+      <c r="S15">
+        <v>0.81167</v>
+      </c>
+      <c r="T15">
+        <v>15709.849609000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6500</v>
+      </c>
+      <c r="B16">
+        <v>0.83111000000000002</v>
+      </c>
+      <c r="C16">
+        <v>27145.984375</v>
+      </c>
+      <c r="D16">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E16">
+        <v>25948.994140999999</v>
+      </c>
+      <c r="F16">
+        <v>6500</v>
+      </c>
+      <c r="G16">
+        <v>0.85555999999999999</v>
+      </c>
+      <c r="H16">
+        <v>16053.369140999999</v>
+      </c>
+      <c r="I16">
+        <v>0.85</v>
+      </c>
+      <c r="J16">
+        <v>14132.723633</v>
+      </c>
+      <c r="K16">
+        <v>6500</v>
+      </c>
+      <c r="L16">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="M16">
+        <v>16686.308590000001</v>
+      </c>
+      <c r="N16">
+        <v>0.85167000000000004</v>
+      </c>
+      <c r="O16">
+        <v>17378.164059999999</v>
+      </c>
+      <c r="P16">
+        <v>6500</v>
+      </c>
+      <c r="Q16">
+        <v>0.81667000000000001</v>
+      </c>
+      <c r="R16">
+        <v>12920.398438</v>
+      </c>
+      <c r="S16">
+        <v>0.81333</v>
+      </c>
+      <c r="T16">
+        <v>14959.080078000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7000</v>
+      </c>
+      <c r="B17">
+        <v>0.83555999999999997</v>
+      </c>
+      <c r="C17">
+        <v>26649.089843999998</v>
+      </c>
+      <c r="D17">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E17">
+        <v>25071.224609000001</v>
+      </c>
+      <c r="F17">
+        <v>7000</v>
+      </c>
+      <c r="G17">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="H17">
+        <v>18798.707031000002</v>
+      </c>
+      <c r="I17">
+        <v>0.85</v>
+      </c>
+      <c r="J17">
+        <v>17167.734375</v>
+      </c>
+      <c r="K17">
+        <v>7000</v>
+      </c>
+      <c r="L17">
+        <v>0.84555999999999998</v>
+      </c>
+      <c r="M17">
+        <v>16188.73633</v>
+      </c>
+      <c r="N17">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="O17">
+        <v>16842.783200000002</v>
+      </c>
+      <c r="P17">
+        <v>7000</v>
+      </c>
+      <c r="Q17">
+        <v>0.81777999999999995</v>
+      </c>
+      <c r="R17">
+        <v>13080.759765999999</v>
+      </c>
+      <c r="S17">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="T17">
+        <v>15190.858398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7500</v>
+      </c>
+      <c r="B18">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="C18">
+        <v>26552.542968999998</v>
+      </c>
+      <c r="D18">
+        <v>0.83667000000000002</v>
+      </c>
+      <c r="E18">
+        <v>25241.244140999999</v>
+      </c>
+      <c r="F18">
+        <v>7500</v>
+      </c>
+      <c r="G18">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="H18">
+        <v>15756.376953000001</v>
+      </c>
+      <c r="I18">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="J18">
+        <v>13513.339844</v>
+      </c>
+      <c r="K18">
+        <v>7500</v>
+      </c>
+      <c r="L18">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="M18">
+        <v>17508.14258</v>
+      </c>
+      <c r="N18">
+        <v>0.84</v>
+      </c>
+      <c r="O18">
+        <v>18068.835940000001</v>
+      </c>
+      <c r="P18">
+        <v>7500</v>
+      </c>
+      <c r="Q18">
+        <v>0.82443999999999995</v>
+      </c>
+      <c r="R18">
+        <v>13549.239258</v>
+      </c>
+      <c r="S18">
+        <v>0.82</v>
+      </c>
+      <c r="T18">
+        <v>15727.296875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8000</v>
+      </c>
+      <c r="B19">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="C19">
+        <v>26698.324218999998</v>
+      </c>
+      <c r="D19">
+        <v>0.85</v>
+      </c>
+      <c r="E19">
+        <v>25005.425781000002</v>
+      </c>
+      <c r="F19">
+        <v>8000</v>
+      </c>
+      <c r="G19">
+        <v>0.85221999999999998</v>
+      </c>
+      <c r="H19">
+        <v>18571.142577999999</v>
+      </c>
+      <c r="I19">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J19">
+        <v>16624.669922000001</v>
+      </c>
+      <c r="K19">
+        <v>8000</v>
+      </c>
+      <c r="L19">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="M19">
+        <v>16639.873049999998</v>
+      </c>
+      <c r="N19">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="O19">
+        <v>17191.433590000001</v>
+      </c>
+      <c r="P19">
+        <v>8000</v>
+      </c>
+      <c r="Q19">
+        <v>0.82443999999999995</v>
+      </c>
+      <c r="R19">
+        <v>14447.921875</v>
+      </c>
+      <c r="S19">
+        <v>0.81833</v>
+      </c>
+      <c r="T19">
+        <v>16740.732422000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8500</v>
+      </c>
+      <c r="B20">
+        <v>0.85</v>
+      </c>
+      <c r="C20">
+        <v>26561.886718999998</v>
+      </c>
+      <c r="D20">
+        <v>0.85167000000000004</v>
+      </c>
+      <c r="E20">
+        <v>24896.65625</v>
+      </c>
+      <c r="F20">
+        <v>8500</v>
+      </c>
+      <c r="G20">
+        <v>0.86111000000000004</v>
+      </c>
+      <c r="H20">
+        <v>17431.634765999999</v>
+      </c>
+      <c r="I20">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J20">
+        <v>15157.973633</v>
+      </c>
+      <c r="K20">
+        <v>8500</v>
+      </c>
+      <c r="L20">
+        <v>0.85</v>
+      </c>
+      <c r="M20">
+        <v>16667.246090000001</v>
+      </c>
+      <c r="N20">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O20">
+        <v>17153.765630000002</v>
+      </c>
+      <c r="P20">
+        <v>8500</v>
+      </c>
+      <c r="Q20">
+        <v>0.80889</v>
+      </c>
+      <c r="R20">
+        <v>13286.032227</v>
+      </c>
+      <c r="S20">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T20">
+        <v>13885.400390999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9000</v>
+      </c>
+      <c r="B21">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="C21">
+        <v>25714.296875</v>
+      </c>
+      <c r="D21">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E21">
+        <v>24251.029297000001</v>
+      </c>
+      <c r="F21">
+        <v>9000</v>
+      </c>
+      <c r="G21">
+        <v>0.87</v>
+      </c>
+      <c r="H21">
+        <v>16544.818359000001</v>
+      </c>
+      <c r="I21">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="J21">
+        <v>13968.611328000001</v>
+      </c>
+      <c r="K21">
+        <v>9000</v>
+      </c>
+      <c r="L21">
+        <v>0.85333000000000003</v>
+      </c>
+      <c r="M21">
+        <v>17352.876950000002</v>
+      </c>
+      <c r="N21">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O21">
+        <v>17703.6875</v>
+      </c>
+      <c r="P21">
+        <v>9000</v>
+      </c>
+      <c r="Q21">
+        <v>0.83221999999999996</v>
+      </c>
+      <c r="R21">
+        <v>14071.637694999999</v>
+      </c>
+      <c r="S21">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T21">
+        <v>16379.658203000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9500</v>
+      </c>
+      <c r="B22">
+        <v>0.85111000000000003</v>
+      </c>
+      <c r="C22">
+        <v>26599.310547000001</v>
+      </c>
+      <c r="D22">
+        <v>0.85833000000000004</v>
+      </c>
+      <c r="E22">
+        <v>24759.003906000002</v>
+      </c>
+      <c r="F22">
+        <v>9500</v>
+      </c>
+      <c r="G22">
+        <v>0.87666999999999995</v>
+      </c>
+      <c r="H22">
+        <v>16345.268555000001</v>
+      </c>
+      <c r="I22">
+        <v>0.86333000000000004</v>
+      </c>
+      <c r="J22">
+        <v>13635.534180000001</v>
+      </c>
+      <c r="K22">
+        <v>9500</v>
+      </c>
+      <c r="L22">
+        <v>0.85</v>
+      </c>
+      <c r="M22">
+        <v>16547.087889999999</v>
+      </c>
+      <c r="N22">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="O22">
+        <v>16848.085940000001</v>
+      </c>
+      <c r="P22">
+        <v>9500</v>
+      </c>
+      <c r="Q22">
+        <v>0.83555999999999997</v>
+      </c>
+      <c r="R22">
+        <v>12844.137694999999</v>
+      </c>
+      <c r="S22">
+        <v>0.81833</v>
+      </c>
+      <c r="T22">
+        <v>15195.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_exploration.xlsx
+++ b/data_exploration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-920" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Image Classes" sheetId="1" r:id="rId1"/>
@@ -966,7 +966,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -974,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1324351952"/>
-        <c:axId val="-2075734960"/>
+        <c:axId val="-2018174432"/>
+        <c:axId val="-2075251776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1324351952"/>
+        <c:axId val="-2018174432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075734960"/>
+        <c:crossAx val="-2075251776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2075734960"/>
+        <c:axId val="-2075251776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200000.0"/>
@@ -1201,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1324351952"/>
+        <c:crossAx val="-2018174432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1764,6 +1763,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Lesioning!$A$3:$A$22</c:f>
@@ -1946,6 +1960,21 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Lesioning!$A$3:$A$22</c:f>
@@ -2094,11 +2123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1299440688"/>
-        <c:axId val="-2042371760"/>
+        <c:axId val="1051810432"/>
+        <c:axId val="1052253152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1299440688"/>
+        <c:axId val="1051810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,12 +2231,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2042371760"/>
+        <c:crossAx val="1052253152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2042371760"/>
+        <c:axId val="1052253152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -2321,7 +2350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1299440688"/>
+        <c:crossAx val="1051810432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3549,13 +3578,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -5199,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
